--- a/src/test/resources/data.xlsx
+++ b/src/test/resources/data.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="63">
   <si>
     <t>displays the first five Doctors</t>
   </si>
@@ -178,6 +178,45 @@
   </si>
   <si>
     <t>Schedule a demo button is disabled</t>
+  </si>
+  <si>
+    <t>Dr. G Vivek</t>
+  </si>
+  <si>
+    <t>Dr. Ravindranath Reddy D.R</t>
+  </si>
+  <si>
+    <t>18 years experience overall</t>
+  </si>
+  <si>
+    <t>BGS Gleneagles Global Hospital</t>
+  </si>
+  <si>
+    <t>₹800</t>
+  </si>
+  <si>
+    <t>Dr. Abhijit Vilas Kulkarni</t>
+  </si>
+  <si>
+    <t>22 years experience overall</t>
+  </si>
+  <si>
+    <t>Apollo Spectra Hospitals</t>
+  </si>
+  <si>
+    <t>₹500</t>
+  </si>
+  <si>
+    <t>Dr. Sanjay Bhat</t>
+  </si>
+  <si>
+    <t>14 years experience overall</t>
+  </si>
+  <si>
+    <t>Aster CMI Hospital</t>
+  </si>
+  <si>
+    <t>₹1100</t>
   </si>
 </sst>
 </file>
@@ -550,10 +589,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>31</v>
@@ -567,16 +606,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>33</v>
@@ -584,16 +623,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>33</v>
@@ -601,16 +640,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>33</v>
@@ -618,16 +657,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s" s="0">
         <v>33</v>

--- a/src/test/resources/data.xlsx
+++ b/src/test/resources/data.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="63">
   <si>
     <t>displays the first five Doctors</t>
   </si>
